--- a/biology/Botanique/Trigoniaceae/Trigoniaceae.xlsx
+++ b/biology/Botanique/Trigoniaceae/Trigoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trigoniaceae (les Trigoniacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales. Elle comprend une trentaine d'espèces réparties en 2 à 5 genres.
 Ce sont des arbres, des arbustes  ou des lianes, généralement à feuilles opposées, des régions tropicales, originaires de Madagascar, d'Asie du Sud-Est, d'Amérique centrale et du sud.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Trigonia dérivé du grec τριγωνο /  trigono, triangle, ou de τρι / tri, trois, et 
 γωνι / goni, « angle, coin », probablement en référence à la forme du fruit composé de trois parties.
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Classification de Cronquist attribuait cette famille à l'ordre de Polygalales.
 La classification phylogénétique situe cette famille dans l'ordre des Malpighiales.
@@ -576,14 +592,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (25 mai 2010)[1] et DELTA Angio           (25 mai 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (25 mai 2010) et DELTA Angio           (25 mai 2010) :
 Humbertiodendron Leandri
 Trigonia Aubl.
 Trigoniastrum Miq.
 Trigoniodendron E.F.Guim. &amp; Miguel
-Selon NCBI  (25 mai 2010)[3] :
+Selon NCBI  (25 mai 2010) :
 Trigonia
 Trigoniastrum
 Selon [réf. nécessaire] :
@@ -619,9 +637,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (25 mai 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (25 mai 2010) :
 genre Trigonia
 Trigonia boliviana
 Trigonia nivea
